--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/152.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/152.xlsx
@@ -479,13 +479,13 @@
         <v>-6.047114685107988</v>
       </c>
       <c r="E2" t="n">
-        <v>-12.54469380460428</v>
+        <v>-15.21626984557838</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.200118562774875</v>
+        <v>1.104175923226401</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.240923369604004</v>
+        <v>-8.559017142800458</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.972392446874415</v>
       </c>
       <c r="E3" t="n">
-        <v>-13.09123198673214</v>
+        <v>-15.69876048220451</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3060876619758058</v>
+        <v>1.026237444409606</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.382542809442954</v>
+        <v>-8.578786520091466</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.895120185771622</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.3667071308249</v>
+        <v>-16.02206180857809</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1313708805529714</v>
+        <v>1.223996678833878</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.926930670550887</v>
+        <v>-8.286513951452772</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.837606957318075</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.01588896723188</v>
+        <v>-16.54932812092293</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1650966526732578</v>
+        <v>1.218432450126145</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.764991976701578</v>
+        <v>-8.139814698111232</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.802902799400148</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.57329376071837</v>
+        <v>-17.03865293963244</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2473817760335061</v>
+        <v>1.192195475231326</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.689344650882084</v>
+        <v>-7.92605666961437</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.804283190204578</v>
       </c>
       <c r="E7" t="n">
-        <v>-15.17467559945022</v>
+        <v>-17.65842946385691</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1090485042078285</v>
+        <v>1.307355371027148</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.234923911548614</v>
+        <v>-7.387779730579645</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.837651832521463</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.90988695783019</v>
+        <v>-18.31544049736325</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00819306773982844</v>
+        <v>1.397993383600417</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.180721777783869</v>
+        <v>-7.229925835216954</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.901630652160666</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.41870621547103</v>
+        <v>-18.81866934169068</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03292985548603314</v>
+        <v>1.377359914321857</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.817515112348704</v>
+        <v>-6.841189179240423</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.983001427493119</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.15268689738387</v>
+        <v>-19.48987243147744</v>
       </c>
       <c r="F10" t="n">
-        <v>0.114842966688529</v>
+        <v>1.543920191074296</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.614715341330367</v>
+        <v>-6.675414440658487</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.066157053847241</v>
       </c>
       <c r="E11" t="n">
-        <v>-17.85561263695615</v>
+        <v>-20.02461444874491</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1750020982462603</v>
+        <v>1.578745716633288</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.524941420744651</v>
+        <v>-6.561589959752522</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.13938142655576</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.72086983946298</v>
+        <v>-20.79323736397696</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1444970326250385</v>
+        <v>1.559761877512785</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.139831332655278</v>
+        <v>-6.262339193699188</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.188921289509214</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.3922431291867</v>
+        <v>-21.51624669610844</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1401372957787438</v>
+        <v>1.570130981363432</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.76300867226472</v>
+        <v>-6.036575523496464</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.218671236449271</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.33522933366486</v>
+        <v>-22.35605246189096</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2444043956102502</v>
+        <v>1.757612758056949</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.293178292486537</v>
+        <v>-5.702695616426766</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.226212730429887</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.09730609747605</v>
+        <v>-23.0804626704265</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4304591112940193</v>
+        <v>1.952190562890682</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.975781594694572</v>
+        <v>-5.358996482225773</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.225547411081296</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.15339670620388</v>
+        <v>-24.1470533060334</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7365571517335748</v>
+        <v>2.224693754238368</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.599155318846639</v>
+        <v>-5.122353108361574</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.218055633096601</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.13836992589546</v>
+        <v>-25.0907726794707</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8269464105528516</v>
+        <v>2.359832504170665</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.076130912622524</v>
+        <v>-4.537925801809765</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.219988781680311</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.93048043242557</v>
+        <v>-25.87280211281268</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9608806686237092</v>
+        <v>2.49245753195735</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.759506660698221</v>
+        <v>-4.273120884533014</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.23235460933768</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.58377325192486</v>
+        <v>-26.56267482645175</v>
       </c>
       <c r="F19" t="n">
-        <v>1.224900047729957</v>
+        <v>2.831260144895537</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.367640944342518</v>
+        <v>-3.911053249445079</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.270699979656245</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.15784454692886</v>
+        <v>-27.15076797779924</v>
       </c>
       <c r="F20" t="n">
-        <v>1.46680652733653</v>
+        <v>2.924294048888842</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.874453896294697</v>
+        <v>-3.274165085406473</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.333347141828476</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.88925913748473</v>
+        <v>-27.77228577830167</v>
       </c>
       <c r="F21" t="n">
-        <v>1.554629694798828</v>
+        <v>3.074829346963009</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.744800821253083</v>
+        <v>-3.111846714774753</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.43001419098337</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.56984940840902</v>
+        <v>-28.27581574559445</v>
       </c>
       <c r="F22" t="n">
-        <v>1.902256519852339</v>
+        <v>3.334083127834869</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.606297349490463</v>
+        <v>-2.966810183894111</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.554994205177725</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.96285415511195</v>
+        <v>-28.59424673531091</v>
       </c>
       <c r="F23" t="n">
-        <v>2.087067466766144</v>
+        <v>3.405148147659757</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.351350936253532</v>
+        <v>-2.609599793160457</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.708031461661483</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.39408842611272</v>
+        <v>-28.99259314157327</v>
       </c>
       <c r="F24" t="n">
-        <v>2.159206055424054</v>
+        <v>3.506194540992199</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.429577445732845</v>
+        <v>-2.77724673104876</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.88205453507627</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.75250330870782</v>
+        <v>-29.317949959493</v>
       </c>
       <c r="F25" t="n">
-        <v>2.429745401345482</v>
+        <v>3.693911979136868</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.292501034979973</v>
+        <v>-2.658866128753872</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-7.066693832701432</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.91687717088569</v>
+        <v>-29.32723240220779</v>
       </c>
       <c r="F26" t="n">
-        <v>2.397381228720735</v>
+        <v>3.645889412313417</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.385495662064753</v>
+        <v>-2.6337419996006</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.254274609086206</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.82711634260281</v>
+        <v>-29.27237565330095</v>
       </c>
       <c r="F27" t="n">
-        <v>2.478291660282602</v>
+        <v>3.605931704040469</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.357530503194826</v>
+        <v>-2.653314992348981</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-7.425379407254743</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.73007619393994</v>
+        <v>-29.17947267233607</v>
       </c>
       <c r="F28" t="n">
-        <v>2.434353891945769</v>
+        <v>3.550839293682485</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.172837387006597</v>
+        <v>-2.411434697348092</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.570016012612783</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.77672406896501</v>
+        <v>-29.14240836299114</v>
       </c>
       <c r="F29" t="n">
-        <v>2.425660602858863</v>
+        <v>3.491374054175366</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.253368141786054</v>
+        <v>-2.467718507264672</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.664130888747509</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.49484678878265</v>
+        <v>-28.81867499062378</v>
       </c>
       <c r="F30" t="n">
-        <v>2.383293910863038</v>
+        <v>3.490745623638963</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.558706828660789</v>
+        <v>-2.573661421859919</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.697686726524154</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.15571686827342</v>
+        <v>-28.48002948531969</v>
       </c>
       <c r="F31" t="n">
-        <v>2.353312537355485</v>
+        <v>3.328689099064077</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.711258341372581</v>
+        <v>-2.62456429530855</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.650927465791981</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.79516794031512</v>
+        <v>-28.14133161080424</v>
       </c>
       <c r="F32" t="n">
-        <v>2.462947481352099</v>
+        <v>3.351548259825731</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.969700399468254</v>
+        <v>-2.905263268235157</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.520719143080934</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.5174147355279</v>
+        <v>-27.81583077755324</v>
       </c>
       <c r="F33" t="n">
-        <v>2.347604293316492</v>
+        <v>3.222772369074514</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.05773304377602</v>
+        <v>-2.881003231069438</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.298707103192605</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.83132569741009</v>
+        <v>-27.07174283784659</v>
       </c>
       <c r="F34" t="n">
-        <v>2.274104105163043</v>
+        <v>3.273937088579979</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.141824904928427</v>
+        <v>-2.929693505337818</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.992575235496095</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.4034430559368</v>
+        <v>-26.71855178408534</v>
       </c>
       <c r="F35" t="n">
-        <v>2.233465597142325</v>
+        <v>3.240970670024513</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.239572037944753</v>
+        <v>-3.049069122648676</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.608521693132688</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.83517165109168</v>
+        <v>-26.01010109271386</v>
       </c>
       <c r="F36" t="n">
-        <v>2.145563875862976</v>
+        <v>3.157494147105667</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.288432512150075</v>
+        <v>-3.076589143221984</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.164056813829789</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.17240000433498</v>
+        <v>-25.42605346294446</v>
       </c>
       <c r="F37" t="n">
-        <v>2.141976584884343</v>
+        <v>3.142830767922934</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.285185621045327</v>
+        <v>-3.098034335276731</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.677717760838332</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.64650838378853</v>
+        <v>-24.88840495444614</v>
       </c>
       <c r="F38" t="n">
-        <v>2.050042434329743</v>
+        <v>3.092268294348188</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.28991194237119</v>
+        <v>-3.214542738265252</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.170708259957451</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.01594380202248</v>
+        <v>-24.2902569145162</v>
       </c>
       <c r="F39" t="n">
-        <v>2.147004029175566</v>
+        <v>3.232643965417175</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.185893596293676</v>
+        <v>-3.229441778899136</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.669223212545127</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.46854152790707</v>
+        <v>-23.7603983262087</v>
       </c>
       <c r="F40" t="n">
-        <v>2.209794713604484</v>
+        <v>3.371160529482637</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.35127556579036</v>
+        <v>-3.280423206164818</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.191981858335883</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.83198067143951</v>
+        <v>-23.13186305138312</v>
       </c>
       <c r="F41" t="n">
-        <v>2.284996901127359</v>
+        <v>3.395355105134147</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.282318406722989</v>
+        <v>-3.25707963019802</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.766200856987749</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.23715807643136</v>
+        <v>-22.64150394074911</v>
       </c>
       <c r="F42" t="n">
-        <v>2.298455788448653</v>
+        <v>3.479302950955294</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.651050023957362</v>
+        <v>-3.585460770074193</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.403685604995784</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.63006799366053</v>
+        <v>-21.91752577820734</v>
       </c>
       <c r="F43" t="n">
-        <v>2.252868389953763</v>
+        <v>3.513185830709681</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.815803562917643</v>
+        <v>-3.74904909408156</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.125617355182556</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.78852095160006</v>
+        <v>-21.25690126911669</v>
       </c>
       <c r="F44" t="n">
-        <v>2.199713640416355</v>
+        <v>3.454584683190115</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.785547251050414</v>
+        <v>-3.742201819695337</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.933870398302594</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.27726652563065</v>
+        <v>-20.68696714181067</v>
       </c>
       <c r="F45" t="n">
-        <v>2.241975593989447</v>
+        <v>3.597709737855864</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.991004759545621</v>
+        <v>-3.882446567735907</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.838600448593443</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.64104606903698</v>
+        <v>-20.10705667973926</v>
       </c>
       <c r="F46" t="n">
-        <v>2.245143931277144</v>
+        <v>3.732508087914276</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.153074376423348</v>
+        <v>-4.114219604942984</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.830907183117807</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.29281699805275</v>
+        <v>-19.73137304969593</v>
       </c>
       <c r="F47" t="n">
-        <v>2.286777454313834</v>
+        <v>3.803337446288014</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.142783826389751</v>
+        <v>-4.177075750886111</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.90999587229201</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.65293069666339</v>
+        <v>-19.1265479353167</v>
       </c>
       <c r="F48" t="n">
-        <v>2.3308199610734</v>
+        <v>3.841724078219955</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.23152345505097</v>
+        <v>-4.345377303916499</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.059107670128292</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.08727775238661</v>
+        <v>-18.5409292292063</v>
       </c>
       <c r="F49" t="n">
-        <v>2.293140313494912</v>
+        <v>3.820724024461827</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.337976969457045</v>
+        <v>-4.384457827899052</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.270689266046269</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.62629776932944</v>
+        <v>-18.1399643623756</v>
       </c>
       <c r="F50" t="n">
-        <v>2.032446379310463</v>
+        <v>3.604596289150613</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.335764370276793</v>
+        <v>-4.562212023581166</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.525061013621517</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.92684149001022</v>
+        <v>-17.50290599840005</v>
       </c>
       <c r="F51" t="n">
-        <v>2.096310632572402</v>
+        <v>3.716195078573485</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.365287513184886</v>
+        <v>-4.653426097479472</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.81187645105749</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.449155728527</v>
+        <v>-17.12896364463467</v>
       </c>
       <c r="F52" t="n">
-        <v>2.07596519395636</v>
+        <v>3.751937065331397</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.427986551493912</v>
+        <v>-4.705271616732707</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.115331869907237</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.88974781270573</v>
+        <v>-16.62443866232591</v>
       </c>
       <c r="F53" t="n">
-        <v>2.165385622365349</v>
+        <v>3.757750047793124</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.534099666026102</v>
+        <v>-4.863701573420435</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.425199791814458</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.31519210249658</v>
+        <v>-16.1319455063287</v>
       </c>
       <c r="F54" t="n">
-        <v>2.078400362284921</v>
+        <v>3.678803461657516</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.80615771907717</v>
+        <v>-5.053238841660103</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.732135697469873</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.72344619865625</v>
+        <v>-15.58356130950016</v>
       </c>
       <c r="F55" t="n">
-        <v>2.066852951178519</v>
+        <v>3.662411898499675</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.964482937342163</v>
+        <v>-5.186819607554233</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.025439872262399</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.4345776287564</v>
+        <v>-15.3316784951282</v>
       </c>
       <c r="F56" t="n">
-        <v>2.090968973012978</v>
+        <v>3.717006801349672</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.14740859264676</v>
+        <v>-5.370072570429874</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.299731931829876</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.89763610461154</v>
+        <v>-14.86086619263688</v>
       </c>
       <c r="F57" t="n">
-        <v>2.027157088962405</v>
+        <v>3.71129855731068</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.415185462668583</v>
+        <v>-5.57097395753616</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.544449440270386</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.50791752592188</v>
+        <v>-14.56708800917139</v>
       </c>
       <c r="F58" t="n">
-        <v>2.057505046949526</v>
+        <v>3.686213705065933</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.955229862586942</v>
+        <v>-5.907275940631577</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.758251449723438</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.98355770480791</v>
+        <v>-14.23242256393119</v>
       </c>
       <c r="F59" t="n">
-        <v>2.037892777292621</v>
+        <v>3.725307321351327</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.968387626942876</v>
+        <v>-6.061699652649737</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.932015714276206</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.58350929917612</v>
+        <v>-13.81829993274456</v>
       </c>
       <c r="F60" t="n">
-        <v>1.915872514807734</v>
+        <v>3.580480267316153</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.101745823688698</v>
+        <v>-6.278861679885447</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.0666907627008</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.3683503942752</v>
+        <v>-13.64855822640158</v>
       </c>
       <c r="F61" t="n">
-        <v>1.866226502431909</v>
+        <v>3.52402625746263</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.349229624305845</v>
+        <v>-6.439923189444361</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.154096931757608</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.00236816063759</v>
+        <v>-13.30886533687015</v>
       </c>
       <c r="F62" t="n">
-        <v>1.644207230841918</v>
+        <v>3.339450971999976</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.550785626554219</v>
+        <v>-6.563972758869715</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.19680437027646</v>
       </c>
       <c r="E63" t="n">
-        <v>-10.70049893401591</v>
+        <v>-13.03090265523747</v>
       </c>
       <c r="F63" t="n">
-        <v>1.587150975057676</v>
+        <v>3.255293649333361</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.512241886988177</v>
+        <v>-6.625428028408778</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.188915645906287</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.46195717623966</v>
+        <v>-12.8940488136329</v>
       </c>
       <c r="F64" t="n">
-        <v>1.556017478900051</v>
+        <v>3.249349743843217</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.737102188294822</v>
+        <v>-6.770634759226361</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.133951001053391</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.43566783213347</v>
+        <v>-12.79482225039546</v>
       </c>
       <c r="F65" t="n">
-        <v>1.337821159739844</v>
+        <v>3.089937864442361</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.809725192157877</v>
+        <v>-6.824509585420064</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.02981986164435</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.2999399285733</v>
+        <v>-12.60461727471086</v>
       </c>
       <c r="F66" t="n">
-        <v>1.251974930006647</v>
+        <v>3.073074978382218</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.932622638933159</v>
+        <v>-6.877939273317148</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.879505611419581</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.19378753713258</v>
+        <v>-12.53850114536015</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9529467331016233</v>
+        <v>2.83112922186712</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.821311880172805</v>
+        <v>-6.842053271227977</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.685819260179916</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.11571813528737</v>
+        <v>-12.4331866613013</v>
       </c>
       <c r="F68" t="n">
-        <v>0.860619813461771</v>
+        <v>2.783630347157338</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.684287838631299</v>
+        <v>-6.660227369362086</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.450652960423731</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.01215801980932</v>
+        <v>-12.49606899185011</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7753627373564509</v>
+        <v>2.708375790423096</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.508536765283968</v>
+        <v>-6.487827925542237</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.182727740036303</v>
       </c>
       <c r="E70" t="n">
-        <v>-9.971938465479536</v>
+        <v>-12.33739028140839</v>
       </c>
       <c r="F70" t="n">
-        <v>0.4629803915528669</v>
+        <v>2.472478677820876</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.494056678341019</v>
+        <v>-6.348840038574473</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.884129578434954</v>
       </c>
       <c r="E71" t="n">
-        <v>-9.822607659266808</v>
+        <v>-12.18707755248254</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3979902002465387</v>
+        <v>2.350301307701888</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.271264960883367</v>
+        <v>-6.177618902010379</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.568389774239692</v>
       </c>
       <c r="E72" t="n">
-        <v>-9.938395985599033</v>
+        <v>-12.26192624782868</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4012763682598119</v>
+        <v>2.407436117303181</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.27523192864441</v>
+        <v>-6.058308746213729</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.238827648405716</v>
       </c>
       <c r="E73" t="n">
-        <v>-10.14014837239003</v>
+        <v>-12.46695171033011</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2853571188991693</v>
+        <v>2.2793933955111</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.062626022797621</v>
+        <v>-5.88363124169942</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.909221879824931</v>
       </c>
       <c r="E74" t="n">
-        <v>-10.35395877009826</v>
+        <v>-12.6589110545955</v>
       </c>
       <c r="F74" t="n">
-        <v>0.189351262160792</v>
+        <v>2.229642644712541</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.978193761771329</v>
+        <v>-5.762304871265145</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.583067573023436</v>
       </c>
       <c r="E75" t="n">
-        <v>-10.50250403814048</v>
+        <v>-12.8340860666178</v>
       </c>
       <c r="F75" t="n">
-        <v>0.164646086698455</v>
+        <v>2.183845769372183</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.746656386015403</v>
+        <v>-5.425086426970807</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.271461237620991</v>
       </c>
       <c r="E76" t="n">
-        <v>-10.70737239300781</v>
+        <v>-12.96905461661315</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0813004868080268</v>
+        <v>2.086177190172906</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.453519725389157</v>
+        <v>-5.112704081167222</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.975953830497679</v>
       </c>
       <c r="E77" t="n">
-        <v>-11.23874968844495</v>
+        <v>-13.36882808388526</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1058354623334215</v>
+        <v>2.114718410367869</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.261665119546503</v>
+        <v>-4.846432825972197</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.70194335676063</v>
       </c>
       <c r="E78" t="n">
-        <v>-11.95853831407737</v>
+        <v>-14.02992391587821</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.04307639018837085</v>
+        <v>1.921135620550108</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.089592983297697</v>
+        <v>-4.687322069536701</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.448760846443137</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.47492492276073</v>
+        <v>-14.4782305497846</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.06744116577682306</v>
+        <v>1.849730200851334</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.8441646742267</v>
+        <v>-4.319585467318299</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.216533864739172</v>
       </c>
       <c r="E80" t="n">
-        <v>-12.95550408317196</v>
+        <v>-14.8218380378657</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.07059641076167904</v>
+        <v>1.816371013210616</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.611593006546278</v>
+        <v>-4.079799940772086</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.003759868211782</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.56755614871982</v>
+        <v>-15.34258438339535</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.1506820272445174</v>
+        <v>1.746903254332417</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.347560535137189</v>
+        <v>-3.873727094043318</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-1.805838819528403</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.52741833156096</v>
+        <v>-16.18257344141766</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.1642718375942291</v>
+        <v>1.704091424039973</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.061506810348316</v>
+        <v>-3.497545956492003</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.620361864609316</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.22382410431806</v>
+        <v>-16.85206143953216</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.2041378997472849</v>
+        <v>1.603018846101848</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.916051325776739</v>
+        <v>-3.38822522776359</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.438957118893073</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.06827763760939</v>
+        <v>-17.59665997904965</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.302015955792029</v>
+        <v>1.463638190048832</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.752646294009156</v>
+        <v>-3.158834989673708</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.258549315268426</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.01012481174032</v>
+        <v>-18.61720498556219</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3273102848822438</v>
+        <v>1.425539588779409</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.499820833832584</v>
+        <v>-2.930230289754328</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.070897653376421</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.16099060073941</v>
+        <v>-19.70753196622114</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.3987418891867012</v>
+        <v>1.322110396329773</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.323009283955074</v>
+        <v>-2.753706770539336</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.87626639720057</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.39474375902946</v>
+        <v>-20.92224891617933</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.349907599587063</v>
+        <v>1.275449429001861</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.185134242728856</v>
+        <v>-2.673149831154196</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.6732125677682823</v>
       </c>
       <c r="E88" t="n">
-        <v>-20.69957502944725</v>
+        <v>-22.03632533419317</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.3139037667723163</v>
+        <v>1.283186979981322</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.07138831563994</v>
+        <v>-2.652084315881858</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.4677760432052152</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.16727454721611</v>
+        <v>-23.34551634145725</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.4852558263648271</v>
+        <v>1.017465601505649</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.107091025489327</v>
+        <v>-2.704846296334015</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2653537781906896</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.7088146530123</v>
+        <v>-24.73007973618115</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3339873593315241</v>
+        <v>1.141803201593522</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.241679898702271</v>
+        <v>-2.7990977844916</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.07572000424874561</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.28854500619781</v>
+        <v>-26.27694840923392</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3989644583350105</v>
+        <v>0.9788040312140323</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.287385127922737</v>
+        <v>-2.779341499503436</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.09251220078746809</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.0823214185427</v>
+        <v>-27.98405377676658</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5223986895268039</v>
+        <v>0.7458395944483586</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.400096763087157</v>
+        <v>-2.832051110744225</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2284797305109096</v>
       </c>
       <c r="E93" t="n">
-        <v>-28.88384847416989</v>
+        <v>-29.67208365905885</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.587729280707017</v>
+        <v>0.6904853380335407</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.415663511165969</v>
+        <v>-2.881278169429115</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.3238341582662579</v>
       </c>
       <c r="E94" t="n">
-        <v>-30.61530552498817</v>
+        <v>-31.32515709276371</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.5329641779200769</v>
+        <v>0.656681012096204</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.616630359786464</v>
+        <v>-3.017490488194433</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.3723425379180841</v>
       </c>
       <c r="E95" t="n">
-        <v>-32.31511847983798</v>
+        <v>-33.06323884881989</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.7713226434565417</v>
+        <v>0.3674982269281586</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.598078566659738</v>
+        <v>-3.104789963543062</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.3672205487530882</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.38450095930405</v>
+        <v>-35.07047216669628</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.9599565428001309</v>
+        <v>0.07245009008701998</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.915933495051164</v>
+        <v>-3.403661052813985</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.310390394262096</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.51447461632162</v>
+        <v>-36.98516908808736</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.057913152661925</v>
+        <v>-0.05559263170506096</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.13996898127878</v>
+        <v>-3.565285531395093</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.195146692682067</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.72509685884422</v>
+        <v>-39.21571781553507</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.011265277636855</v>
+        <v>-0.2002363935004506</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.363258206244419</v>
+        <v>-3.778336575538502</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.03706649087818265</v>
       </c>
       <c r="E99" t="n">
-        <v>-40.8084750100481</v>
+        <v>-41.24272051070247</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.162389729338899</v>
+        <v>-0.3072921538372446</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.657075666618435</v>
+        <v>-4.099111087463632</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1744710151290872</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.03081486361405</v>
+        <v>-43.45522804483428</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.198105531491128</v>
+        <v>-0.4943026076284598</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.751130770233395</v>
+        <v>-4.130414783558199</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4010880069526925</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.34870234331891</v>
+        <v>-45.62802662444714</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.412347975193133</v>
+        <v>-0.704015114547228</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.063552392945504</v>
+        <v>-4.368380480009412</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.6771254001872535</v>
       </c>
       <c r="E102" t="n">
-        <v>-47.72170841798744</v>
+        <v>-47.98568852018517</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.697943469382546</v>
+        <v>-0.9641722643151667</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.296032414506033</v>
+        <v>-4.580344863016957</v>
       </c>
     </row>
   </sheetData>
